--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325774.1583757901</v>
+        <v>-328342.5818147365</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10116307.12854492</v>
+        <v>10116307.12854491</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8126253390002</v>
+        <v>355.8126253390003</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3516754465273</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7618252962026</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0091537477815</v>
+        <v>57.38104036202445</v>
       </c>
       <c r="F11" t="n">
-        <v>35.28148915749864</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0005093289731</v>
+        <v>384.0005093289732</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6865480628401</v>
+        <v>267.6865480628402</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65571344844565</v>
+        <v>14.65571344844571</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369552</v>
+        <v>82.26654546369559</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9967538151398</v>
+        <v>176.9967538151399</v>
       </c>
       <c r="U11" t="n">
         <v>224.0739556344217</v>
@@ -1430,10 +1430,10 @@
         <v>300.8310421456546</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3197523929327</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8098843539887</v>
+        <v>342.8098843539888</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3167223315733</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.910763857457</v>
+        <v>152.9107638574571</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3256047741475</v>
+        <v>108.7724758667208</v>
       </c>
       <c r="D13" t="n">
-        <v>121.694256693732</v>
+        <v>121.6942566937321</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4998316984509</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1045919345479</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01093634556709</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8478090069616</v>
+        <v>162.8478090069617</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6277329516889</v>
+        <v>192.627732951689</v>
       </c>
       <c r="U13" t="n">
-        <v>30.4650579540262</v>
+        <v>259.2906218811326</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2164269993477</v>
+        <v>225.2164269993478</v>
       </c>
       <c r="W13" t="n">
         <v>259.6017820121107</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7884390645568</v>
+        <v>198.7884390645569</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6634370276145</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8126253390002</v>
+        <v>355.8126253390003</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3516754465272</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7618252962026</v>
+        <v>40.72356206077154</v>
       </c>
       <c r="E14" t="n">
-        <v>88.93593739739678</v>
+        <v>355.0091537477815</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0005093289731</v>
+        <v>384.0005093289732</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6865480628401</v>
+        <v>267.6865480628402</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65571344844562</v>
+        <v>14.65571344844565</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369551</v>
+        <v>82.26654546369554</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9967538151398</v>
+        <v>176.9967538151399</v>
       </c>
       <c r="U14" t="n">
         <v>224.0739556344217</v>
@@ -1670,10 +1670,10 @@
         <v>322.3197523929327</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8098843539887</v>
+        <v>342.8098843539888</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3167223315733</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,22 +1765,22 @@
         <v>152.910763857457</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>107.0935281344733</v>
       </c>
       <c r="D16" t="n">
-        <v>121.694256693732</v>
+        <v>121.6942566937321</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5127463220888</v>
+        <v>119.5127463220889</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4998316984509</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8337985898405</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01093634556705</v>
       </c>
       <c r="S16" t="n">
         <v>162.8478090069616</v>
       </c>
       <c r="T16" t="n">
-        <v>125.3985671434386</v>
+        <v>192.6277329516889</v>
       </c>
       <c r="U16" t="n">
         <v>259.2906218811326</v>
@@ -1828,7 +1828,7 @@
         <v>259.6017820121107</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7884390645568</v>
+        <v>198.7884390645569</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6634370276145</v>
@@ -1850,13 +1850,13 @@
         <v>280.7866886776101</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0340171291889</v>
+        <v>308.034017129189</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9796927986386</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.988230719932674</v>
+        <v>336.9679235185702</v>
       </c>
       <c r="H17" t="n">
         <v>220.7114114442476</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29140884510292</v>
+        <v>35.29140884510301</v>
       </c>
       <c r="T17" t="n">
         <v>130.0216171965473</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0988190158291</v>
+        <v>177.0988190158292</v>
       </c>
       <c r="V17" t="n">
-        <v>253.855905527062</v>
+        <v>253.8559055270621</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3446157743401</v>
+        <v>275.3446157743402</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8347477353961</v>
+        <v>295.8347477353962</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129808</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9356272388644</v>
+        <v>105.9356272388645</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555494</v>
+        <v>93.35046815555501</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513946</v>
+        <v>74.71912007513953</v>
       </c>
       <c r="E19" t="n">
-        <v>134.9544196961218</v>
+        <v>72.53760970349634</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985835</v>
+        <v>71.52469507985842</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12945531595533</v>
+        <v>92.1294553159554</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85866197124788</v>
+        <v>70.85866197124795</v>
       </c>
       <c r="I19" t="n">
-        <v>22.4560674667652</v>
+        <v>22.45606746676527</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03579972697443</v>
+        <v>15.0357997269745</v>
       </c>
       <c r="S19" t="n">
-        <v>115.872672388369</v>
+        <v>178.2894823809934</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6525963330963</v>
+        <v>145.6525963330964</v>
       </c>
       <c r="U19" t="n">
         <v>212.31548526254</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2412903807551</v>
+        <v>178.2412903807552</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6266453935181</v>
+        <v>212.6266453935182</v>
       </c>
       <c r="X19" t="n">
         <v>151.8133024459643</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6883004090219</v>
+        <v>144.688300409022</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>308.8374887204077</v>
       </c>
       <c r="C20" t="n">
-        <v>233.6840126118269</v>
+        <v>291.3765388279347</v>
       </c>
       <c r="D20" t="n">
         <v>280.7866886776101</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0340171291889</v>
+        <v>308.034017129189</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9796927986386</v>
+        <v>220.653962252437</v>
       </c>
       <c r="G20" t="n">
         <v>337.0253727103806</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7114114442476</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510294</v>
+        <v>35.29140884510301</v>
       </c>
       <c r="T20" t="n">
         <v>130.0216171965473</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0988190158291</v>
+        <v>177.0988190158292</v>
       </c>
       <c r="V20" t="n">
-        <v>253.855905527062</v>
+        <v>253.8559055270621</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.3446157743402</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8347477353961</v>
+        <v>295.8347477353962</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129808</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9356272388644</v>
+        <v>105.9356272388645</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35046815555494</v>
+        <v>93.35046815555501</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513946</v>
+        <v>74.71912007513953</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53760970349627</v>
+        <v>72.53760970349634</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52469507985835</v>
+        <v>71.52469507985842</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12945531595533</v>
+        <v>92.1294553159554</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85866197124788</v>
+        <v>70.85866197124795</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4560674667652</v>
+        <v>22.45606746676527</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03579972697443</v>
+        <v>15.0357997269745</v>
       </c>
       <c r="S22" t="n">
-        <v>115.872672388369</v>
+        <v>115.8726723883691</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6525963330963</v>
+        <v>145.6525963330964</v>
       </c>
       <c r="U22" t="n">
         <v>212.31548526254</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2412903807551</v>
+        <v>178.2412903807552</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6266453935181</v>
+        <v>275.0434553861423</v>
       </c>
       <c r="X22" t="n">
         <v>151.8133024459643</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.1051104016474</v>
+        <v>144.688300409022</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>280.7866886776101</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0340171291889</v>
+        <v>308.034017129189</v>
       </c>
       <c r="F23" t="n">
         <v>332.9796927986386</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29140884510292</v>
+        <v>35.29140884510301</v>
       </c>
       <c r="T23" t="n">
         <v>130.0216171965473</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0988190158291</v>
+        <v>177.0988190158292</v>
       </c>
       <c r="V23" t="n">
-        <v>253.855905527062</v>
+        <v>253.8559055270621</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3446157743401</v>
+        <v>275.3446157743402</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8347477353961</v>
+        <v>295.8347477353962</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129808</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9356272388644</v>
+        <v>105.9356272388645</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555494</v>
+        <v>93.35046815555501</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71912007513946</v>
+        <v>74.71912007513953</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53760970349627</v>
+        <v>72.53760970349634</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52469507985835</v>
+        <v>71.52469507985842</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595533</v>
+        <v>92.1294553159554</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85866197124788</v>
+        <v>70.85866197124795</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4560674667652</v>
+        <v>22.45606746676527</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697443</v>
+        <v>15.0357997269745</v>
       </c>
       <c r="S25" t="n">
-        <v>115.872672388369</v>
+        <v>115.8726723883691</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6525963330963</v>
+        <v>145.6525963330964</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7322952551654</v>
+        <v>212.31548526254</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2412903807551</v>
+        <v>178.2412903807552</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6266453935181</v>
+        <v>212.6266453935182</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8133024459643</v>
+        <v>214.2301124385884</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6883004090219</v>
+        <v>144.688300409022</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,7 +3797,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572827</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1464.891145767276</v>
+        <v>1139.315638299669</v>
       </c>
       <c r="C11" t="n">
-        <v>1464.891145767276</v>
+        <v>797.546269161763</v>
       </c>
       <c r="D11" t="n">
-        <v>1133.818594963031</v>
+        <v>797.546269161763</v>
       </c>
       <c r="E11" t="n">
-        <v>775.2234901672923</v>
+        <v>739.5856223314353</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5856223314348</v>
+        <v>739.5856223314353</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7063199789367</v>
+        <v>351.7063199789371</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020931</v>
+        <v>81.31586739020955</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508300938769</v>
+        <v>3242.508300938772</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.723701125497</v>
+        <v>3063.723701125499</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.386372201839</v>
+        <v>2837.386372201841</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.516632660773</v>
+        <v>2533.516632660775</v>
       </c>
       <c r="W11" t="n">
-        <v>2533.516632660773</v>
+        <v>2207.941125193166</v>
       </c>
       <c r="X11" t="n">
-        <v>2187.244022202199</v>
+        <v>1861.668514734592</v>
       </c>
       <c r="Y11" t="n">
-        <v>1824.297838028893</v>
+        <v>1498.722330561286</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>712.1050774654843</v>
+        <v>418.3308347658131</v>
       </c>
       <c r="C13" t="n">
-        <v>570.3620423400828</v>
+        <v>308.4596470216508</v>
       </c>
       <c r="D13" t="n">
-        <v>447.4385507302524</v>
+        <v>185.5361554118203</v>
       </c>
       <c r="E13" t="n">
-        <v>326.7186049503647</v>
+        <v>185.5361554118203</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0218052549591</v>
+        <v>185.5361554118203</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>185.5361554118203</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2867530403545</v>
+        <v>138.2867530403544</v>
       </c>
       <c r="K13" t="n">
         <v>368.9259401504663</v>
       </c>
       <c r="L13" t="n">
-        <v>712.137742760198</v>
+        <v>712.1377427601979</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946792520982</v>
@@ -5221,28 +5221,28 @@
         <v>2140.510581378376</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.510581378376</v>
+        <v>2077.873271938409</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.017845007708</v>
+        <v>1913.380535567741</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.44437737974</v>
+        <v>1718.807067939772</v>
       </c>
       <c r="U13" t="n">
-        <v>1750.671591567592</v>
+        <v>1456.897348867921</v>
       </c>
       <c r="V13" t="n">
-        <v>1523.18025116421</v>
+        <v>1229.40600846454</v>
       </c>
       <c r="W13" t="n">
-        <v>1260.956228929755</v>
+        <v>967.1819862300842</v>
       </c>
       <c r="X13" t="n">
-        <v>1060.159825834243</v>
+        <v>766.3855831345722</v>
       </c>
       <c r="Y13" t="n">
-        <v>866.5603944932186</v>
+        <v>572.7861517935474</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1502.261822472977</v>
+        <v>1139.315638299669</v>
       </c>
       <c r="C14" t="n">
-        <v>1160.492453335071</v>
+        <v>1139.315638299669</v>
       </c>
       <c r="D14" t="n">
-        <v>829.4199025308255</v>
+        <v>1098.180727127173</v>
       </c>
       <c r="E14" t="n">
-        <v>739.5856223314348</v>
+        <v>739.5856223314349</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5856223314348</v>
+        <v>739.5856223314349</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7063199789367</v>
+        <v>351.7063199789368</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31586739020931</v>
+        <v>81.31586739020935</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810558</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5306,22 @@
         <v>3242.508300938772</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.7237011255</v>
+        <v>3063.723701125499</v>
       </c>
       <c r="U14" t="n">
         <v>2837.386372201841</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.516632660776</v>
+        <v>2533.516632660775</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.941125193167</v>
+        <v>2207.941125193166</v>
       </c>
       <c r="X14" t="n">
-        <v>1861.668514734593</v>
+        <v>1861.668514734592</v>
       </c>
       <c r="Y14" t="n">
-        <v>1861.668514734593</v>
+        <v>1498.722330561286</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
@@ -5358,10 +5358,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>548.8763924969426</v>
+        <v>418.330834765814</v>
       </c>
       <c r="C16" t="n">
-        <v>548.8763924969426</v>
+        <v>310.1555538219017</v>
       </c>
       <c r="D16" t="n">
-        <v>425.9529008871123</v>
+        <v>187.2320622120712</v>
       </c>
       <c r="E16" t="n">
-        <v>305.2329551072245</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>185.5361554118195</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5361554118195</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218343</v>
@@ -5437,19 +5437,19 @@
         <v>138.2867530403545</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9259401504664</v>
+        <v>368.9259401504661</v>
       </c>
       <c r="L16" t="n">
         <v>712.1377427601979</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946792520983</v>
+        <v>1082.946792520982</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.007173388083</v>
+        <v>1451.007173388082</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.988776469732</v>
+        <v>1776.988776469731</v>
       </c>
       <c r="P16" t="n">
         <v>2036.248281064626</v>
@@ -5458,28 +5458,28 @@
         <v>2140.510581378377</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.510581378377</v>
+        <v>2077.87327193841</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.017845007708</v>
+        <v>1913.380535567741</v>
       </c>
       <c r="T16" t="n">
-        <v>1849.352625670901</v>
+        <v>1718.807067939773</v>
       </c>
       <c r="U16" t="n">
-        <v>1587.44290659905</v>
+        <v>1456.897348867922</v>
       </c>
       <c r="V16" t="n">
-        <v>1359.951566195669</v>
+        <v>1229.40600846454</v>
       </c>
       <c r="W16" t="n">
-        <v>1097.727543961214</v>
+        <v>967.1819862300852</v>
       </c>
       <c r="X16" t="n">
-        <v>896.9311408657015</v>
+        <v>766.3855831345732</v>
       </c>
       <c r="Y16" t="n">
-        <v>703.3317095246769</v>
+        <v>572.7861517935484</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>940.9700478382515</v>
       </c>
       <c r="E17" t="n">
-        <v>629.8245759905865</v>
+        <v>629.8245759905852</v>
       </c>
       <c r="F17" t="n">
-        <v>293.4814519515576</v>
+        <v>629.8245759905852</v>
       </c>
       <c r="G17" t="n">
         <v>289.4529360728376</v>
@@ -5513,31 +5513,31 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
         <v>3289.957933886845</v>
@@ -5595,7 +5595,7 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
         <v>765.1517452158131</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1614980085905</v>
+        <v>569.1142151877571</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8680958312623</v>
+        <v>474.8208130104288</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3942371695052</v>
+        <v>399.3469543486717</v>
       </c>
       <c r="E19" t="n">
-        <v>326.076641516857</v>
+        <v>326.0766415168572</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8294747695253</v>
+        <v>253.8294747695255</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7694188948229</v>
+        <v>160.769418894823</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325939</v>
+        <v>89.19501286325946</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5698,25 +5698,25 @@
         <v>1912.106871596599</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063768174005</v>
+        <v>1732.016485353172</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.939933494109</v>
+        <v>1584.892650673276</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479847370332</v>
+        <v>1370.432564549499</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.438139915023</v>
+        <v>1190.390857094191</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.663750628642</v>
+        <v>975.6164678078085</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3169804812029</v>
+        <v>822.2696976603697</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1671820882515</v>
+        <v>676.1198992674182</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1797.038576403792</v>
+        <v>1518.912701884256</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994119220128</v>
+        <v>1224.592965694423</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371201363957</v>
+        <v>940.970047838251</v>
       </c>
       <c r="E20" t="n">
-        <v>966.225729516291</v>
+        <v>629.8245759905853</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8826054772621</v>
+        <v>406.9417858366083</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4529360728376</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,22 +5750,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5789,13 +5789,13 @@
         <v>2723.315164453069</v>
       </c>
       <c r="W20" t="n">
-        <v>2723.315164453069</v>
+        <v>2445.189289933533</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.492186942568</v>
+        <v>2146.366312423032</v>
       </c>
       <c r="Y20" t="n">
-        <v>2108.995635717336</v>
+        <v>1830.869761197799</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5829,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1142151877566</v>
+        <v>569.1142151877571</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8208130104284</v>
+        <v>474.8208130104288</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3469543486714</v>
+        <v>399.3469543486717</v>
       </c>
       <c r="E22" t="n">
-        <v>326.076641516857</v>
+        <v>326.0766415168572</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8294747695253</v>
+        <v>253.8294747695255</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7694188948229</v>
+        <v>160.769418894823</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19501286325939</v>
+        <v>89.19501286325946</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5935,25 +5935,25 @@
         <v>1912.106871596599</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.063768174005</v>
+        <v>1795.063768174004</v>
       </c>
       <c r="T22" t="n">
         <v>1647.939933494109</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479847370332</v>
+        <v>1433.479847370331</v>
       </c>
       <c r="V22" t="n">
         <v>1253.438139915023</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663750628642</v>
+        <v>975.6164678078085</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3169804812029</v>
+        <v>822.2696976603697</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1198992674176</v>
+        <v>676.1198992674182</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179185073752</v>
+        <v>1862.179185073753</v>
       </c>
       <c r="C23" t="n">
         <v>1567.859448883919</v>
@@ -5975,64 +5975,64 @@
         <v>973.0910591800816</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7479351410525</v>
+        <v>636.7479351410527</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3182657366274</v>
+        <v>296.3182657366276</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597337</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597337</v>
       </c>
       <c r="J23" t="n">
         <v>262.2565770549988</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759507448453</v>
+        <v>596.0759507448454</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110163993254</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.043222190884</v>
+        <v>1580.642068665179</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.822039249666</v>
+        <v>2127.420885723961</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.794510129003</v>
+        <v>2901.735254454753</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.568876486182</v>
+        <v>3296.509620811931</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.855238241864</v>
+        <v>3544.795982567613</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.872304798666</v>
+        <v>3668.872304798668</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.22441707634</v>
+        <v>3633.224417076342</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.889450211141</v>
+        <v>3501.889450211143</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.001754235557</v>
+        <v>3323.001754235558</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.581647642565</v>
+        <v>3066.581647642566</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.455773123029</v>
+        <v>2788.45577312303</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.632795612528</v>
+        <v>2489.632795612529</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136244387295</v>
+        <v>2174.136244387296</v>
       </c>
     </row>
     <row r="24">
@@ -6057,31 +6057,31 @@
         <v>319.2497322239498</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8866320565678</v>
+        <v>182.8866320565679</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38473769443536</v>
+        <v>92.38473769443542</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597337</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547155865906</v>
+        <v>167.0547155865907</v>
       </c>
       <c r="K24" t="n">
         <v>405.3189145669378</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0170748796031</v>
+        <v>772.0170748796032</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293400101919</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816443656373</v>
+        <v>1692.816443656374</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777723074428</v>
+        <v>2103.777723074429</v>
       </c>
       <c r="P24" t="n">
         <v>2414.277314550532</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9795448515465</v>
+        <v>575.979544851547</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6861426742183</v>
+        <v>481.6861426742187</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2122840124613</v>
+        <v>406.2122840124616</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9419711806469</v>
+        <v>332.9419711806472</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6948044333152</v>
+        <v>260.6948044333154</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6347485586128</v>
+        <v>167.634748558613</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06034252704929</v>
+        <v>96.0603425270494</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597337</v>
       </c>
       <c r="J25" t="n">
         <v>118.5000785429089</v>
@@ -6151,7 +6151,7 @@
         <v>322.4872614917853</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470599402813</v>
+        <v>639.0470599402814</v>
       </c>
       <c r="M25" t="n">
         <v>983.2041055398304</v>
@@ -6178,19 +6178,19 @@
         <v>1654.805263157899</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.297894213288</v>
+        <v>1440.345177034121</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.25618675798</v>
+        <v>1260.303469578813</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4817974715976</v>
+        <v>1045.529080292431</v>
       </c>
       <c r="X25" t="n">
-        <v>829.135027324159</v>
+        <v>829.1350273241596</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9852289312075</v>
+        <v>682.9852289312081</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226675</v>
+        <v>2200.835586644152</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2747.614403702934</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3250.586874582271</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>697.2742011480902</v>
+        <v>665.7404053951332</v>
       </c>
       <c r="L29" t="n">
-        <v>1561.793016801445</v>
+        <v>1116.774618643542</v>
       </c>
       <c r="M29" t="n">
-        <v>2095.32492147337</v>
+        <v>2095.324921473371</v>
       </c>
       <c r="N29" t="n">
-        <v>2642.103738532152</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O29" t="n">
-        <v>3145.076209411489</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768667</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="30">
@@ -6537,13 +6537,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
         <v>779.7865456803191</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467807</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
@@ -6704,46 +6704,46 @@
         <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1453.404136464983</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M32" t="n">
-        <v>1986.936041136908</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N32" t="n">
-        <v>2533.71485819569</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O32" t="n">
-        <v>3036.687329075027</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6783,7 +6783,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803193</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6877,7 +6877,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467795</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
@@ -6941,46 +6941,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1326.966459396848</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M35" t="n">
-        <v>2305.516762226677</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N35" t="n">
-        <v>2852.295579285459</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164796</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D36" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F36" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572841</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415471</v>
@@ -7090,7 +7090,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
@@ -7099,7 +7099,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7135,10 +7135,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689498</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
         <v>1711.59465869716</v>
@@ -7157,10 +7157,10 @@
         <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467779</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7172,28 +7172,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1771.984857554751</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>2305.516762226675</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164795</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
@@ -7211,13 +7211,13 @@
         <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7251,10 +7251,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L39" t="n">
         <v>779.7865456803191</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7330,16 +7330,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7351,31 +7351,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7400,7 +7400,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668915</v>
@@ -7415,16 +7415,16 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1468.364237198916</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.89614187084</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285458</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P41" t="n">
         <v>3750.042416521973</v>
@@ -7442,16 +7442,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I42" t="n">
         <v>81.14691689668915</v>
@@ -7533,7 +7533,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,52 +7567,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973152</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498218</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557146</v>
@@ -7652,46 +7652,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1453.404136464983</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M44" t="n">
-        <v>1986.936041136908</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2533.71485819569</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O44" t="n">
-        <v>3036.687329075027</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
@@ -7731,7 +7731,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7801,16 +7801,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7825,28 +7825,28 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
         <v>908.2998821519664</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764229</v>
+        <v>212.1614152764231</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188436</v>
+        <v>225.9304893188439</v>
       </c>
       <c r="M5" t="n">
-        <v>219.4018707603977</v>
+        <v>219.401870760398</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030232</v>
+        <v>218.2916099030235</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661483</v>
+        <v>219.5965380661486</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111175</v>
+        <v>222.2700605111177</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>123.6869003357293</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344805</v>
+        <v>132.4563458344806</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915376</v>
+        <v>131.3134574915378</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437696</v>
+        <v>133.6842191437698</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511129</v>
+        <v>122.6682558511132</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891794</v>
+        <v>134.6617264891797</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357706</v>
+        <v>127.6062572357707</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369104</v>
+        <v>135.7248343369105</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970308</v>
+        <v>130.7280129970309</v>
       </c>
       <c r="M7" t="n">
-        <v>134.5431653216059</v>
+        <v>134.543165321606</v>
       </c>
       <c r="N7" t="n">
-        <v>123.407134714526</v>
+        <v>123.4071347145261</v>
       </c>
       <c r="O7" t="n">
-        <v>134.50473456638</v>
+        <v>134.5047345663801</v>
       </c>
       <c r="P7" t="n">
-        <v>134.346553129917</v>
+        <v>134.3465531299171</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.7991449754602</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>274.0827251024795</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>400.20329728821</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>105.7385611944695</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>94.37250464901939</v>
+        <v>62.52018570663842</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>78.40458911672766</v>
+        <v>122.1718867553234</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>274.8351763665437</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>28.65608477603689</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>400.2032972882099</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>277.2206841544134</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,19 +11063,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>21.74982042514705</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>306.6874953089242</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11300,25 +11300,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>402.5500016878923</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.9710754359426</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.24040888277509</v>
+        <v>15.2404088827751</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3516754465272</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7618252962027</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>297.628113385757</v>
       </c>
       <c r="F11" t="n">
-        <v>344.6733402597325</v>
+        <v>379.9548294172312</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3197523929327</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>31.55312890742682</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5127463220889</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.499831698451</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.104591934548</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8337985898405</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535779</v>
+        <v>69.43120408535785</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01093634556701</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>228.8255639271063</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3516754465273</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>287.0382632354311</v>
       </c>
       <c r="E14" t="n">
-        <v>266.0732163503847</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9548294172311</v>
+        <v>379.9548294172312</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3167223315733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3256047741475</v>
+        <v>33.23207663967429</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.499831698451</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1045919345479</v>
+        <v>139.104591934548</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535776</v>
+        <v>69.43120408535782</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.010936345567</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>67.22916580825027</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9796927986386</v>
       </c>
       <c r="G17" t="n">
-        <v>333.0371419904479</v>
+        <v>0.05744919181046953</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>57.69252621610782</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>112.3257305462016</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3446157743401</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>994640.6552815296</v>
+        <v>994640.6552815298</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>994640.65528153</v>
+        <v>994640.6552815299</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1082377.321478687</v>
+        <v>1082377.321478686</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1141228.755678902</v>
+        <v>1141228.755678903</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1141228.755678903</v>
+        <v>1141228.755678902</v>
       </c>
     </row>
     <row r="14">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>327710.5354868153</v>
+        <v>327710.5354868154</v>
       </c>
       <c r="C2" t="n">
-        <v>327712.5200304697</v>
+        <v>327712.5200304696</v>
       </c>
       <c r="D2" t="n">
         <v>327715.0182081874</v>
@@ -26323,16 +26323,16 @@
         <v>291816.7561011356</v>
       </c>
       <c r="F2" t="n">
-        <v>291816.7561011356</v>
+        <v>291816.7561011357</v>
       </c>
       <c r="G2" t="n">
-        <v>317812.8053447372</v>
+        <v>317812.8053447371</v>
       </c>
       <c r="H2" t="n">
-        <v>317812.8053447372</v>
+        <v>317812.8053447371</v>
       </c>
       <c r="I2" t="n">
-        <v>328416.707945713</v>
+        <v>328416.7079457131</v>
       </c>
       <c r="J2" t="n">
         <v>328416.7079457132</v>
@@ -26344,16 +26344,16 @@
         <v>328416.7079457132</v>
       </c>
       <c r="M2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="O2" t="n">
         <v>328416.7079457135</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
     </row>
     <row r="3">
@@ -26366,34 +26366,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945475</v>
+        <v>14118.19859945434</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072166</v>
+        <v>16714.64353072205</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
       </c>
       <c r="F3" t="n">
-        <v>3.425975592108443e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
+        <v>37580.10929487387</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22820.44161905854</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25410.44272728109</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>37580.10929487406</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22820.44161905842</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25410.44272728114</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
@@ -26418,46 +26418,46 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.1543200266</v>
+        <v>426739.1543200267</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.46710210895</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.46710210897</v>
       </c>
       <c r="G4" t="n">
-        <v>74613.22686521037</v>
+        <v>74613.22686521032</v>
       </c>
       <c r="H4" t="n">
-        <v>74613.22686521037</v>
+        <v>74613.22686521031</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913908</v>
+        <v>85473.0036591391</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646594</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="K4" t="n">
         <v>80755.36360646592</v>
       </c>
       <c r="L4" t="n">
+        <v>80755.36360646595</v>
+      </c>
+      <c r="M4" t="n">
         <v>80755.36360646592</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>80755.36360646591</v>
+      </c>
+      <c r="O4" t="n">
         <v>80755.36360646595</v>
       </c>
-      <c r="N4" t="n">
-        <v>80755.36360646592</v>
-      </c>
-      <c r="O4" t="n">
-        <v>80755.36360646591</v>
-      </c>
       <c r="P4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646595</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112995</v>
+        <v>33965.59259112993</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.58029657601</v>
+        <v>76569.58029657604</v>
       </c>
       <c r="F5" t="n">
         <v>76569.58029657604</v>
@@ -26488,7 +26488,7 @@
         <v>80518.7330569645</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.38360144483</v>
+        <v>85736.38360144485</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,13 +26500,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136815.5739558606</v>
+        <v>-136819.9875337286</v>
       </c>
       <c r="C6" t="n">
-        <v>-147110.4254801416</v>
+        <v>-147114.8266546116</v>
       </c>
       <c r="D6" t="n">
-        <v>-144985.6800460842</v>
+        <v>-144990.0656069441</v>
       </c>
       <c r="E6" t="n">
-        <v>-939507.1327694692</v>
+        <v>-939735.8824684982</v>
       </c>
       <c r="F6" t="n">
-        <v>177661.7087024502</v>
+        <v>177432.9590034219</v>
       </c>
       <c r="G6" t="n">
-        <v>125100.7361276883</v>
+        <v>125034.4617364323</v>
       </c>
       <c r="H6" t="n">
-        <v>162680.8454225623</v>
+        <v>162614.5710313062</v>
       </c>
       <c r="I6" t="n">
         <v>134386.8790660706</v>
       </c>
       <c r="J6" t="n">
-        <v>132872.95993716</v>
+        <v>132872.9599371601</v>
       </c>
       <c r="K6" t="n">
-        <v>158283.4026644413</v>
+        <v>158283.4026644414</v>
       </c>
       <c r="L6" t="n">
         <v>120703.2933695671</v>
       </c>
       <c r="M6" t="n">
-        <v>-48905.16562763172</v>
+        <v>-48905.16562763171</v>
       </c>
       <c r="N6" t="n">
         <v>158283.4026644414</v>
@@ -26561,7 +26561,7 @@
         <v>158283.4026644414</v>
       </c>
       <c r="P6" t="n">
-        <v>158283.4026644413</v>
+        <v>158283.4026644411</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="G2" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H2" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I2" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859256</v>
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953893</v>
+        <v>15.50424729953849</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2180761996666</v>
+        <v>917.2180761996671</v>
       </c>
       <c r="J4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="M4" t="n">
         <v>1014.336461208614</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208614</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953893</v>
+        <v>15.50424729953849</v>
       </c>
       <c r="D3" t="n">
-        <v>19.5170134195864</v>
+        <v>19.51701341958684</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81662079737373</v>
+        <v>85.81662079737418</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894783</v>
+        <v>97.1183850089476</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.8364790096107</v>
+        <v>338.8364790096108</v>
       </c>
       <c r="I5" t="n">
-        <v>208.0729649713487</v>
+        <v>208.0729649713488</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593851744</v>
+        <v>6.659224593851895</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.25990811678366</v>
+        <v>3.259908116783852</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886686</v>
+        <v>145.9538669886688</v>
       </c>
       <c r="S5" t="n">
         <v>207.5997558763429</v>
@@ -27713,7 +27713,7 @@
         <v>111.9133654388211</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234545</v>
+        <v>88.24844095234548</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573489</v>
+        <v>98.08728580573495</v>
       </c>
       <c r="S6" t="n">
         <v>171.0637325442761</v>
@@ -27792,13 +27792,13 @@
         <v>161.9785962146699</v>
       </c>
       <c r="I7" t="n">
-        <v>154.6096872212439</v>
+        <v>154.609687221244</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997582</v>
+        <v>91.38251566997587</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263519</v>
+        <v>19.02122493263528</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946401</v>
+        <v>83.82090190946407</v>
       </c>
       <c r="R7" t="n">
         <v>176.0362765059643</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448025</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448027</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="C17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="D17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="F17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="G17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="T17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="U17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="V17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="W17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="X17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="C19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="D19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="E19" t="n">
-        <v>11.47954295044741</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="F19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="G19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="S19" t="n">
-        <v>73.8963529430729</v>
+        <v>11.47954295044849</v>
       </c>
       <c r="T19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="U19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="V19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="W19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="X19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="C20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="D20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="E20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="F20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="G20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="T20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="U20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="V20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="W20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="X20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="C22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="D22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="E22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="F22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="G22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="S22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="T22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="U22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="V22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="W22" t="n">
-        <v>73.8963529430729</v>
+        <v>11.47954295044872</v>
       </c>
       <c r="X22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.47954295044738</v>
+        <v>73.89635294307283</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="C23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="D23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="E23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="F23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="G23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="T23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="U23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="V23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="W23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="X23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="C25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="D25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="E25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="F25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="G25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="S25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="T25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="U25" t="n">
-        <v>11.47954295044752</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="V25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="W25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="X25" t="n">
-        <v>73.8963529430729</v>
+        <v>11.47954295044875</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859301</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859347</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859199</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235995545</v>
+        <v>0.06232863235995367</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563939</v>
+        <v>0.6383231061563757</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599057185</v>
+        <v>2.402924599057116</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760774</v>
+        <v>5.290064760760623</v>
       </c>
       <c r="K5" t="n">
-        <v>7.92843576855769</v>
+        <v>7.928435768557463</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651143679</v>
+        <v>9.835925651143398</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687503</v>
+        <v>10.94436246687472</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356776</v>
+        <v>11.12145369356744</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553845</v>
+        <v>10.50167335553815</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244152051</v>
+        <v>8.962935244151796</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097761144</v>
+        <v>6.730791097760952</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952481055</v>
+        <v>3.915250952480943</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902486</v>
+        <v>1.420313709902446</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881557051</v>
+        <v>0.2728435881556973</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588796435</v>
+        <v>0.004986290588796293</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240449</v>
+        <v>0.03334875834240354</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976753277</v>
+        <v>0.3220787976753184</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069628</v>
+        <v>1.148191899069596</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937435</v>
+        <v>3.150726330937346</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139878536</v>
+        <v>5.385093139878382</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288336555</v>
+        <v>7.240922288336348</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778248715</v>
+        <v>8.449814778248475</v>
       </c>
       <c r="N6" t="n">
-        <v>8.673456232220369</v>
+        <v>8.67345623222012</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955264984</v>
+        <v>7.934517955264758</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178559679</v>
+        <v>6.368150178559498</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749111142</v>
+        <v>4.25693974911102</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908238</v>
+        <v>2.070548346908179</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595617672</v>
+        <v>0.6194385595617495</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573233</v>
+        <v>0.1344188987573195</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368718</v>
+        <v>0.002193997259368655</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687348</v>
+        <v>0.02795847873687268</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696571</v>
+        <v>0.24857629276965</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060143408</v>
+        <v>0.8407877060143168</v>
       </c>
       <c r="J7" t="n">
-        <v>1.976664446696955</v>
+        <v>1.976664446696898</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247663</v>
+        <v>3.248266893247571</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207536</v>
+        <v>4.156663284207417</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625999176</v>
+        <v>4.382618625999051</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750707196</v>
+        <v>4.278409750707074</v>
       </c>
       <c r="O7" t="n">
-        <v>3.951803885462809</v>
+        <v>3.951803885462696</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230587</v>
+        <v>3.381450919230491</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230378</v>
+        <v>2.341141342230312</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205238</v>
+        <v>1.257114871205202</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339871494</v>
+        <v>0.4872400339871355</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546030048</v>
+        <v>0.1194589546030014</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102191</v>
+        <v>0.001525007931102148</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32315,10 +32315,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33263,10 +33263,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33971,13 +33971,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754652</v>
+        <v>72.49963293754647</v>
       </c>
       <c r="K13" t="n">
         <v>232.9688758687998</v>
@@ -35574,7 +35574,7 @@
         <v>346.6785884946784</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5545957179641</v>
+        <v>374.554595717964</v>
       </c>
       <c r="N13" t="n">
         <v>371.7781624920203</v>
@@ -35586,7 +35586,7 @@
         <v>261.8782874695907</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.315454862374</v>
+        <v>105.3154548623739</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754655</v>
+        <v>72.49963293754652</v>
       </c>
       <c r="K16" t="n">
         <v>232.9688758687999</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6785884946784</v>
+        <v>346.6785884946785</v>
       </c>
       <c r="M16" t="n">
         <v>374.5545957179642</v>
@@ -35963,10 +35963,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36364,13 +36364,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>878.720260805687</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>782.1357259906986</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>939.1244131184368</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,7 +36610,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>504.5005474138413</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36832,13 +36832,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>431.5637912044199</v>
+        <v>399.7114722620389</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36911,10 +36911,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>533.9947035090598</v>
+        <v>577.7620011476556</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37084,13 +37084,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37309,25 +37309,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>730.4252907588759</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>536.709085664256</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>855.793411680542</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37555,16 +37555,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>785.2736850426326</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887904</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412328</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
@@ -37783,19 +37783,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>477.3399348174792</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>858.9893307218357</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.022796162913</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.832082786132</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38020,25 +38020,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>858.1401160802245</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>793.2729108488541</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
